--- a/TestandoXbimToolKit/ExcelWorkbook1/ExcelWorkbook1/ExcelWorkbook1.xlsx
+++ b/TestandoXbimToolKit/ExcelWorkbook1/ExcelWorkbook1/ExcelWorkbook1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\TCC\ExcelWorkbook1\ExcelWorkbook1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\TCC\TestandoXbimToolKit\ExcelWorkbook1\ExcelWorkbook1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CDEB99-A795-4204-9B7B-394C148C179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64472A97-8752-4099-B869-0812E6497CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{D70836F9-03D2-4D2F-90B1-B083F705F57A}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{D70836F9-03D2-4D2F-90B1-B083F705F57A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -381,11 +382,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B5A907-9E45-4B4E-866B-C3CF7972EF7D}">
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <dataConsolidate/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB9D66A-4973-4673-9A42-2610A907E7A9}">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
